--- a/RNAseq_Novemvber_2020_timetable.xlsx
+++ b/RNAseq_Novemvber_2020_timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -91,64 +91,67 @@
     <t xml:space="preserve">QC of alignment </t>
   </si>
   <si>
+    <t xml:space="preserve">Karsten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30 - 17:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantification with SubRead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday 19th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30 - 10:15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to RNAseq Analysis in R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:15 - 12:30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA-seq Pre-processing </t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbi</t>
   </si>
   <si>
-    <t xml:space="preserve">15:30 - 17:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantification with SubRead </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday 19th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30 - 10:15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to RNAseq Analysis in R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:15 - 12:30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-seq Pre-processing </t>
-  </si>
-  <si>
     <t xml:space="preserve">12:30 - 13:30 </t>
   </si>
   <si>
+    <t xml:space="preserve">13:30 – 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical Analysis of Bulk RNAseq Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:00 - 17:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental Design of Bulk RNAseq studies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday 20th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30 - 12:15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential Expression for RNA-seq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:15 - 13:15 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Lunch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30 – 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical Analysis of Bulk RNAseq Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00 - 17:00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experimental Design of Bulk RNAseq studies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 20th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30 - 12:15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential Expression for RNA-seq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:15 - 13:15 </t>
   </si>
   <si>
     <t xml:space="preserve">13:15 - 15:30 </t>
@@ -222,7 +225,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +260,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDFCCE4"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF58220"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -348,7 +357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,11 +426,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,7 +497,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
@@ -502,10 +519,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -743,8 +760,8 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
+      <c r="F10" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>14</v>
@@ -755,10 +772,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -786,11 +803,11 @@
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>8</v>
@@ -812,17 +829,17 @@
       <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>16</v>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>14</v>
@@ -841,16 +858,16 @@
       <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -862,7 +879,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
@@ -882,12 +899,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -896,8 +913,8 @@
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>16</v>
+      <c r="G16" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,31 +925,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>23</v>
+      <c r="G17" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
